--- a/MyLearingTrack.xlsx
+++ b/MyLearingTrack.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JAVA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{451B5FB8-50DA-47BA-8730-F8CFE2A350F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC230834-EF0C-4B0B-B522-B184C652C475}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{DDF48843-92AC-49FE-9A6A-86B126883B1E}"/>
+    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12432" xr2:uid="{DDF48843-92AC-49FE-9A6A-86B126883B1E}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="8">
   <si>
     <t>28.03.2025</t>
   </si>
@@ -54,13 +54,19 @@
   </si>
   <si>
     <t>SQL</t>
+  </si>
+  <si>
+    <t>29.03.2025</t>
+  </si>
+  <si>
+    <t>Today is to Complete Balance Programming</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -74,13 +80,50 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC00000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -95,8 +138,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -411,10 +460,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B84B6410-61CF-4521-A842-EA6B6CC17494}">
-  <dimension ref="A1:H1"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -423,27 +472,47 @@
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1" s="6" t="s">
         <v>2</v>
       </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/MyLearingTrack.xlsx
+++ b/MyLearingTrack.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JAVA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC230834-EF0C-4B0B-B522-B184C652C475}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64E34FB4-CDFF-4B44-88BD-39088708A87A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12432" xr2:uid="{DDF48843-92AC-49FE-9A6A-86B126883B1E}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{DDF48843-92AC-49FE-9A6A-86B126883B1E}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="9">
   <si>
     <t>28.03.2025</t>
   </si>
@@ -59,7 +59,10 @@
     <t>29.03.2025</t>
   </si>
   <si>
-    <t>Today is to Complete Balance Programming</t>
+    <t>Today Complete Balance Programming</t>
+  </si>
+  <si>
+    <t>30.03.2005</t>
   </si>
 </sst>
 </file>
@@ -460,10 +463,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B84B6410-61CF-4521-A842-EA6B6CC17494}">
-  <dimension ref="A1:H2"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -501,18 +504,17 @@
       <c r="B2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2"/>
-      <c r="H2" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/MyLearingTrack.xlsx
+++ b/MyLearingTrack.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JAVA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64E34FB4-CDFF-4B44-88BD-39088708A87A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{786347A8-500F-40EE-94C5-19E35C2BC114}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{DDF48843-92AC-49FE-9A6A-86B126883B1E}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="27">
   <si>
     <t>28.03.2025</t>
   </si>
@@ -59,17 +59,71 @@
     <t>29.03.2025</t>
   </si>
   <si>
-    <t>Today Complete Balance Programming</t>
-  </si>
-  <si>
-    <t>30.03.2005</t>
+    <t>15.03.2025</t>
+  </si>
+  <si>
+    <t>16.03.2025</t>
+  </si>
+  <si>
+    <t>17.03.2025</t>
+  </si>
+  <si>
+    <t>18.03.2025</t>
+  </si>
+  <si>
+    <t>19.03.2025</t>
+  </si>
+  <si>
+    <t>20.03.2025</t>
+  </si>
+  <si>
+    <t>21.03.2025</t>
+  </si>
+  <si>
+    <t>22.03.2025</t>
+  </si>
+  <si>
+    <t>23.03.2025</t>
+  </si>
+  <si>
+    <t>24.03.2025</t>
+  </si>
+  <si>
+    <t>25.03.2025</t>
+  </si>
+  <si>
+    <t>26.03.2025</t>
+  </si>
+  <si>
+    <t>27.03.2025</t>
+  </si>
+  <si>
+    <t>Today Complete Remaining Programming</t>
+  </si>
+  <si>
+    <t>30.03.2025</t>
+  </si>
+  <si>
+    <t>31.03.2025</t>
+  </si>
+  <si>
+    <t>01.04.2025</t>
+  </si>
+  <si>
+    <t>02.04.2025</t>
+  </si>
+  <si>
+    <t>DSA - 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Programming </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -90,8 +144,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -128,6 +188,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -141,7 +207,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
@@ -149,6 +215,8 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -463,57 +531,464 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B84B6410-61CF-4521-A842-EA6B6CC17494}">
-  <dimension ref="A1:H3"/>
+  <dimension ref="A1:X20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="H20" sqref="H20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="10.33203125" customWidth="1"/>
+    <col min="2" max="2" width="7.21875" customWidth="1"/>
+    <col min="4" max="4" width="12.21875" customWidth="1"/>
+    <col min="6" max="6" width="12.77734375" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="6" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="H2" s="6" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G3" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="H3" s="6" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G4" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="H4" s="6" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G5" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="H5" s="6" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G6" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="H6" s="6" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G7" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="H7" s="6" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G8" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="H8" s="6" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>15</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G9" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="H9" s="6" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>16</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G10" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="H10" s="6" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>17</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G11" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="H11" s="6" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>18</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G12" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="H12" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="X12" s="1"/>
+    </row>
+    <row r="13" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>19</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G13" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="H13" s="6" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="G1" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" s="6" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
+      <c r="B14" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G14" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="H14" s="6" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>0</v>
+      </c>
+      <c r="B15" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="C15" s="2"/>
+      <c r="D15" s="2"/>
+      <c r="E15" s="2"/>
+    </row>
+    <row r="16" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B3" t="s">
-        <v>7</v>
+      <c r="B16" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C16" s="2"/>
+      <c r="D16" s="2"/>
+      <c r="E16" s="2"/>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>21</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C17" s="2"/>
+      <c r="D17" s="2"/>
+      <c r="E17" s="2"/>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>22</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C18" s="2"/>
+      <c r="D18" s="2"/>
+      <c r="E18" s="2"/>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C19" s="2"/>
+      <c r="D19" s="2"/>
+      <c r="E19" s="2"/>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>24</v>
+      </c>
+      <c r="B20" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="C20" t="s">
+        <v>2</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E20" t="s">
+        <v>4</v>
+      </c>
+      <c r="F20" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G20" t="s">
+        <v>5</v>
+      </c>
+      <c r="H20" t="s">
+        <v>2</v>
       </c>
     </row>
   </sheetData>
